--- a/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719A7B4A-1D06-43D4-9F76-41C148A34777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40930FB7-0B33-4D20-8383-EA8B0DCE59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88F408DC-86E7-4C92-AB6A-A0E1D442653D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BAF3770-304D-4553-893C-F99E79AC1407}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,16%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>14,62%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
@@ -104,28 +104,28 @@
     <t>80,84%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>85,38%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>83,4%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>27,55%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>21,42%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
   </si>
   <si>
     <t>78,58%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>75,63%</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -194,55 +194,55 @@
     <t>31,77%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
   </si>
   <si>
     <t>29,92%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>68,23%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
   </si>
   <si>
     <t>71,89%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>70,08%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -251,55 +251,55 @@
     <t>24,87%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,103 @@
     <t>29,62%</t>
   </si>
   <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>23,38%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>26,8%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>73,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982B6CC1-972A-42CC-92CF-F797701E12C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56F12AE-94DF-466E-8B49-66A942BBEDEA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1757,10 +1751,10 @@
         <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>2413102</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>4244</v>
@@ -1790,13 +1784,13 @@
         <v>2929767</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6715</v>
@@ -1805,13 +1799,13 @@
         <v>5342869</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40930FB7-0B33-4D20-8383-EA8B0DCE59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D68795D3-65E3-4679-BCE6-9A4F7C758641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BAF3770-304D-4553-893C-F99E79AC1407}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0FB99831-C3C8-4021-81BC-1A11AB321F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Una o más de una al día</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>Menos de una al día</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
   </si>
   <si>
     <t>26,85%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
   </si>
   <si>
     <t>73,15%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56F12AE-94DF-466E-8B49-66A942BBEDEA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCE643A-0445-4B68-82D1-C936D0178499}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>19333</v>
+        <v>160940</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="I4" s="7">
-        <v>19111</v>
+        <v>130450</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="N4" s="7">
-        <v>38444</v>
+        <v>291391</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>100</v>
+        <v>567</v>
       </c>
       <c r="D5" s="7">
-        <v>81572</v>
+        <v>472553</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>216</v>
+        <v>1034</v>
       </c>
       <c r="I5" s="7">
-        <v>111622</v>
+        <v>544348</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>316</v>
+        <v>1601</v>
       </c>
       <c r="N5" s="7">
-        <v>193194</v>
+        <v>1016900</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633493</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674798</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1965</v>
       </c>
       <c r="N6" s="7">
-        <v>231638</v>
+        <v>1308291</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>144</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>151203</v>
+        <v>309830</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="I7" s="7">
-        <v>126812</v>
+        <v>260897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>320</v>
+        <v>675</v>
       </c>
       <c r="N7" s="7">
-        <v>278015</v>
+        <v>570728</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>467</v>
+        <v>665</v>
       </c>
       <c r="D8" s="7">
-        <v>397685</v>
+        <v>882197</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>818</v>
+        <v>1137</v>
       </c>
       <c r="I8" s="7">
-        <v>465113</v>
+        <v>696886</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1285</v>
+        <v>1802</v>
       </c>
       <c r="N8" s="7">
-        <v>862798</v>
+        <v>1579082</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>548888</v>
+        <v>1192027</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591925</v>
+        <v>957783</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2477</v>
       </c>
       <c r="N9" s="7">
-        <v>1140813</v>
+        <v>2149810</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>329906</v>
+        <v>169851</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>377</v>
+        <v>202</v>
       </c>
       <c r="I10" s="7">
-        <v>297709</v>
+        <v>146645</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>675</v>
+        <v>365</v>
       </c>
       <c r="N10" s="7">
-        <v>627615</v>
+        <v>316496</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>665</v>
+        <v>513</v>
       </c>
       <c r="D11" s="7">
-        <v>708470</v>
+        <v>534829</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1256,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1137</v>
+        <v>845</v>
       </c>
       <c r="I11" s="7">
-        <v>761447</v>
+        <v>786721</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1271,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1802</v>
+        <v>1358</v>
       </c>
       <c r="N11" s="7">
-        <v>1469916</v>
+        <v>1321550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1038376</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059156</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2477</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2097531</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="D13" s="7">
-        <v>181257</v>
+        <v>262177</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1360,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>202</v>
+        <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>160388</v>
+        <v>232002</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1429,22 +1372,22 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="7">
+        <v>605</v>
+      </c>
+      <c r="N13" s="7">
+        <v>494179</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>365</v>
-      </c>
-      <c r="N13" s="7">
-        <v>341645</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>513</v>
+        <v>726</v>
       </c>
       <c r="D14" s="7">
-        <v>547515</v>
+        <v>662598</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1228</v>
+      </c>
+      <c r="I14" s="7">
+        <v>858346</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>845</v>
-      </c>
-      <c r="I14" s="7">
-        <v>713983</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1954</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1520945</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1358</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1261497</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>924775</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1555</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1090348</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2559</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2015124</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>278</v>
+        <v>900</v>
       </c>
       <c r="D16" s="7">
-        <v>285268</v>
+        <v>902799</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1109</v>
+      </c>
+      <c r="I16" s="7">
+        <v>769995</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>327</v>
-      </c>
-      <c r="I16" s="7">
-        <v>267807</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2009</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1672793</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>605</v>
-      </c>
-      <c r="N16" s="7">
-        <v>553075</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>726</v>
+        <v>2471</v>
       </c>
       <c r="D17" s="7">
-        <v>677861</v>
+        <v>2552177</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4244</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2886300</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1228</v>
-      </c>
-      <c r="I17" s="7">
-        <v>877603</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6715</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5438477</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1954</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1555464</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3371</v>
       </c>
       <c r="D18" s="7">
-        <v>963129</v>
+        <v>3454976</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1555</v>
+        <v>5353</v>
       </c>
       <c r="I18" s="7">
-        <v>1145410</v>
+        <v>3656295</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2559</v>
+        <v>8724</v>
       </c>
       <c r="N18" s="7">
-        <v>2108539</v>
+        <v>7111270</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>900</v>
-      </c>
-      <c r="D19" s="7">
-        <v>966968</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1109</v>
-      </c>
-      <c r="I19" s="7">
-        <v>871827</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2009</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1838795</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2471</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2413102</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4244</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2929767</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6715</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5342869</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3380070</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801594</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8724</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7181664</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD07_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de  bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
+          <t>Población según el número de bebidas carbonatadas y/o azucaradas que consume al día en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
